--- a/data_excel/666.xlsx
+++ b/data_excel/666.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_DATA\Revise_final\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_DATA\excel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>1</t>
   </si>
@@ -109,7 +109,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u</t>
+    <t>adj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C18"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -638,7 +642,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">

--- a/data_excel/666.xlsx
+++ b/data_excel/666.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_DATA\excel\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -113,7 +113,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物品</t>
+    <t>特點</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
